--- a/data/KINE.xlsx
+++ b/data/KINE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>KINE 109.</t>
+          <t>KINE 109.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KINE 121.</t>
+          <t>KINE 121.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -525,6 +630,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>KINE 132.</t>
+          <t>KINE 132.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -789,6 +1074,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KINE 148.</t>
+          <t>KINE 148.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -987,6 +1407,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1009,6 +1444,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1031,6 +1481,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1075,6 +1555,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1097,6 +1592,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1119,6 +1629,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1141,6 +1666,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1163,6 +1703,21 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1185,6 +1740,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>KINE 230.</t>
+          <t>KINE 230.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1224,12 +1809,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Completion of GE Area B1 with a grade of C- or better in at least one of the courses; completion of GE Area B2; and completion of GE Area D4/E. Recommended: MATH 119; and PHYS 121 or PHYS 141.</t>
+          <t>Completion of GE Area B1 with a grade of C- or better in at least one of the courses; completion of GE Area B2; and completion of GE Area D4/E.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MATH 119; and PHYS 121 or PHYS 141.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1273,6 +1888,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1312,12 +1957,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>one of the following: HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260. Recommended: HLTH 101.</t>
+          <t>one of the HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>HLTH 101.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1334,12 +1994,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better. Recommended: PSY 201 or PSY 202.</t>
+          <t>Completion of GE Area A with grades of C- or better.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PSY 201 or PSY 202.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1356,12 +2031,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; and GE Area C2. Recommended: PHIL 230 or PHIL 231.</t>
+          <t>Completion of GE Area A with grades of C- or better; and GE Area C2.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PHIL 230 or PHIL 231.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1378,12 +2068,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260. Recommended: KINE 319 and STAT 218.</t>
+          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>KINE 319 and STAT 218.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1400,12 +2105,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260. Recommended: FSN 210 and HLTH/KINE 265.</t>
+          <t>HLTH/KINE 250, HLTH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>FSN 210 and HLTH/KINE 265.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1427,6 +2147,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -1466,12 +2216,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HLTH/KINE 265; and STAT 217 or STAT 218. Recommended: MCRO 221 or MCRO 224.</t>
+          <t>HLTH/KINE 265; and STAT 217 or STAT 218.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MCRO 221 or MCRO 224.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PHYS 121; and BIO 231 or BIO 409.</t>
+          <t>PHYS 121; and BIO 231 or BIO 409.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1510,12 +2290,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BIO 231; and BIO 232 or BIO 361. Recommended: CHEM 128.</t>
+          <t>BIO 231; and BIO 232 or BIO 361.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CHEM 128.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>KINE 303.</t>
+          <t>KINE 303.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1554,12 +2364,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BIO 231; and one of the following: HLTH/KINE 250; HLTH/KINE 255; HLTH/KINE 260; or HLTH/KINE 443. Recommended: BIO 232.</t>
+          <t>BIO 231; and one of the HLTH/KINE 250; HLTH/KINE 255; HLTH/KINE 260; or HLTH/KINE 443.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F, W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>BIO 232.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W </t>
         </is>
       </c>
     </row>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -1625,6 +2480,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1642,10 +2512,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>STAT 217 or STAT 218.</t>
+          <t>STAT 217 or STAT 218.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1664,10 +2549,25 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>STAT 217 or STAT 218.</t>
+          <t>STAT 217 or STAT 218.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1686,12 +2586,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; KINE 180 or HLTH/KINE 265; and one of the following: HLTH/KINE 250, HTLH/KINE 255, or HLTH/KINE 260. Recommended: HLTH 299.</t>
+          <t>Completion of GE Area A with grades of C- or better; KINE 180 or HLTH/KINE 265; and one of the HLTH/KINE 250, HTLH/KINE 255, or HLTH/KINE 260.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>HLTH 299.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1713,6 +2628,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1735,6 +2665,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>KINE 301.</t>
+          <t>KINE 301.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1779,6 +2739,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1796,12 +2771,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>KINE 303. Recommended: KINE 301.</t>
+          <t>KINE 303.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>KINE 301.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>one of the following: PSY 201, PSY 202, or KINE 266.</t>
+          <t>one of the PSY 201, PSY 202, or KINE 266.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1845,6 +2850,21 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1867,6 +2887,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>KINE 301.</t>
+          <t>KINE 301.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BIO 231 and BIO 232; or ZOO 331 and ZOO 332, or BIO 361.</t>
+          <t>BIO 231 and BIO 232; or ZOO 331 and ZOO 332, or BIO 361.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1928,10 +2993,25 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>One of the following: KINE 250, KINE 255, or KINE 260; and KINE 304.</t>
+          <t>One of the KINE 250, KINE 255, or KINE 260; and KINE 304.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1950,10 +3030,25 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>KINE 403; or ME 326.</t>
+          <t>KINE 403; or ME 326.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HLTH/KINE 265; HLTH/KINE 298; and KINE 266 or HLTH 334.</t>
+          <t>HLTH/KINE 265; HLTH/KINE 298; and KINE 266 or HLTH 334.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1994,10 +3104,25 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HLTH/KINE 320; and HLTH/KINE 434.</t>
+          <t>HLTH/KINE 320; and HLTH/KINE 434.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2016,10 +3141,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>KINE 307.</t>
+          <t>KINE 307.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2043,6 +3183,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2065,6 +3220,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2082,10 +3252,25 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>KINE 303.</t>
+          <t>KINE 303.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2104,10 +3289,25 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>KINE 445.</t>
+          <t>KINE 445.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2126,10 +3326,25 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>KINE 304; KINE 349; KINE 445; and KINE 459.</t>
+          <t>KINE 304; KINE 349; KINE 445; and KINE 459.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2148,12 +3363,27 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>one of the following: HLTH/KINE 250; HLTH/KINE 255; or HLTH/KINE 260; and KINE 266 or HLTH 334. Recommended: HLTH/KINE 320.</t>
+          <t>one of the HLTH/KINE 250; HLTH/KINE 255; or HLTH/KINE 260; and KINE 266 or HLTH 334.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HLTH/KINE 320.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -2170,12 +3400,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>one of the following: KINE 250, KINE 255 or KINE 260; KINE 303; and KINE 319. Recommended: FSN 210 and CHEM 313.</t>
+          <t>one of the KINE 250, KINE 255 or KINE 260; KINE 303; and KINE 319.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>FSN 210 and CHEM 313.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -2192,12 +3437,27 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FSN 210 or KINE 451; and one of the following: HLTH/KINE 298, KINE 304, or FSN 310. Recommended: HLTH 405; and one of the following: KINE 266, HLTH 334, or FSN 415.</t>
+          <t>FSN 210 or KINE 451; and one of the HLTH/KINE 298, KINE 304, or FSN 310.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>HLTH 405; and one of the KINE 266, HLTH 334, or FSN 415.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -2214,12 +3474,27 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>KINE 303; KINE 319; and CHEM 216 or CHEM 312. Recommended: CHEM 313.</t>
+          <t>KINE 303; KINE 319; and CHEM 216 or CHEM 312.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CHEM 313.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -2236,10 +3511,25 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>KINE 301; KINE 303; KINE 312.</t>
+          <t>KINE 301; KINE 303; KINE 312.</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2258,10 +3548,25 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KINE 319; completion of GE Area A with grades of C- or better; and senior standing.</t>
+          <t>KINE 319; completion of GE Area A with grades of C- or better; and senior standing.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>KINE 319 and completion of GE Area A with grades of C- or better.</t>
+          <t>KINE 319 and completion of GE Area A with grades of C- or better.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2302,10 +3622,25 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>KINE 319; completion of GE Area A with grades of C- or better; and consent of instructor.</t>
+          <t>KINE 319; completion of GE Area A with grades of C- or better; and consent of instructor.</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2329,6 +3664,21 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2351,6 +3701,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2373,6 +3738,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2395,6 +3775,21 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2417,6 +3812,21 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2434,10 +3844,25 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>KINE 517, graduate standing, and consent of instructor.</t>
+          <t>KINE 517, graduate standing, and consent of instructor.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2461,6 +3886,21 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2483,6 +3923,21 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2500,12 +3955,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>graduate standing. Recommended: KINE 303 or equivalent.</t>
+          <t>graduate standing.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>KINE 303 or equivalent.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -2527,6 +3997,21 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2544,10 +4029,25 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>KINE 503 or KINE 504 and graduate standing.</t>
+          <t>KINE 503 or KINE 504 and graduate standing.</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2571,6 +4071,21 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2588,12 +4103,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>KINE 501. Recommended: STAT 512 or STAT 513.</t>
+          <t>KINE 501.</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>STAT 512 or STAT 513.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -2610,10 +4140,25 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>KINE 517.</t>
+          <t>KINE 517.</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2632,10 +4177,25 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>KINE 403.</t>
+          <t>KINE 403.</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2659,6 +4219,21 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2681,6 +4256,21 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2698,10 +4288,25 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>KINE 303 and graduate standing.</t>
+          <t>KINE 303 and graduate standing.</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2720,10 +4325,25 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>KINE 445.</t>
+          <t>KINE 445.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2747,6 +4367,21 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2769,6 +4404,21 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2791,6 +4441,21 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2813,6 +4478,21 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2835,6 +4515,21 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2852,10 +4547,25 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>KINE 517, KINE 518 and consent of instructor.</t>
+          <t>KINE 517, KINE 518 and consent of instructor.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
